--- a/OrderList.xlsx
+++ b/OrderList.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sybrenmarechal/CloudStation/Semester_6/robotics/pytobot/gitbook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAAC1B2-BF2E-3F4F-97F2-8CE4276E46E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922ED39D-BD45-554B-96F1-73C9F1512A58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16440" xr2:uid="{02191E56-09F5-6541-9353-1909983703C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="75">
   <si>
     <t>mouser</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>charger</t>
+  </si>
+  <si>
+    <t>V1</t>
   </si>
 </sst>
 </file>
@@ -666,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2939BF-4CA6-6C41-AB98-778C51465D9A}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="108" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="108" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -680,7 +683,7 @@
     <col min="10" max="10" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -699,8 +702,11 @@
       <c r="H1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>63</v>
       </c>
@@ -733,8 +739,27 @@
         <f>L2*K2</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="25" x14ac:dyDescent="0.2">
+      <c r="O2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="R2" s="9">
+        <v>18</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2" s="11">
+        <f>S2*R2</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -767,8 +792,27 @@
         <f t="shared" ref="M3:M17" si="0">L3*K3</f>
         <v>45.24</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="97" x14ac:dyDescent="0.2">
+      <c r="O3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R3" s="1">
+        <v>11.31</v>
+      </c>
+      <c r="S3">
+        <v>4</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T13" si="1">S3*R3</f>
+        <v>45.24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -799,8 +843,27 @@
         <f t="shared" si="0"/>
         <v>17.420000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+      <c r="O4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="1"/>
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="37" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -833,8 +896,27 @@
         <f t="shared" si="0"/>
         <v>0.83</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="121" x14ac:dyDescent="0.2">
+      <c r="O5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" s="8">
+        <v>0.48</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="1"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="61" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>44</v>
       </c>
@@ -867,8 +949,27 @@
         <f t="shared" si="0"/>
         <v>7.74</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="25" x14ac:dyDescent="0.2">
+      <c r="O6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" s="9">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="S6">
+        <v>3</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="1"/>
+        <v>1.9860000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="25" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>45</v>
       </c>
@@ -901,8 +1002,27 @@
         <f t="shared" si="0"/>
         <v>0.96</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="25" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="R7" s="7">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="1"/>
+        <v>1.9039999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
@@ -935,8 +1055,27 @@
         <f t="shared" si="0"/>
         <v>12.218000000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="25" x14ac:dyDescent="0.2">
+      <c r="O8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="R8" s="7">
+        <v>3.27</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="1"/>
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="25" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
         <v>19</v>
@@ -967,8 +1106,27 @@
         <f t="shared" si="0"/>
         <v>22.66</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R9" s="7">
+        <v>0.83</v>
+      </c>
+      <c r="S9">
+        <v>5</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="1"/>
+        <v>4.1499999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>62</v>
       </c>
@@ -1001,8 +1159,27 @@
         <f t="shared" si="0"/>
         <v>1.9860000000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="25" x14ac:dyDescent="0.2">
+      <c r="O10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="R10" s="7">
+        <v>0.83</v>
+      </c>
+      <c r="S10">
+        <v>9</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="1"/>
+        <v>7.47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="25" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
         <v>24</v>
@@ -1033,8 +1210,21 @@
         <f t="shared" si="0"/>
         <v>1.9039999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="25" x14ac:dyDescent="0.2">
+      <c r="O11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R11" s="10">
+        <v>5</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="25" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="3" t="s">
         <v>25</v>
@@ -1065,8 +1255,21 @@
         <f t="shared" si="0"/>
         <v>3.27</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="R12" s="7">
+        <v>10</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1099,8 +1302,21 @@
         <f t="shared" si="0"/>
         <v>4.1499999999999995</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O13" t="s">
+        <v>71</v>
+      </c>
+      <c r="R13" s="10">
+        <v>20</v>
+      </c>
+      <c r="S13">
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
@@ -1134,7 +1350,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
@@ -1162,7 +1378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
@@ -1188,6 +1404,10 @@
       <c r="M16">
         <f t="shared" si="0"/>
         <v>10</v>
+      </c>
+      <c r="T16" s="11">
+        <f>SUM(T2:T15)</f>
+        <v>138.81</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
